--- a/va_facility_data_2025-02-20/Lawrence VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrence%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lawrence VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrence%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R18bed0e085304f78a379ca2c74069d6e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R595249244df64729aba5619327a715ee"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd1d330f0aff14d8daccd556bf6ed14d7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbcad103e444d494cb3807b8f36f04227"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf7d1a8e3f277494cafffad0c5c5f24ed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R07535eff531d427e869081b5a5418d11"/>
   </x:sheets>
 </x:workbook>
 </file>
